--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
@@ -543,7 +543,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H2">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>0.05017006973466667</v>
+        <v>0.02008064036177778</v>
       </c>
       <c r="R2">
-        <v>0.451530627612</v>
+        <v>0.180725763256</v>
       </c>
       <c r="S2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="T2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H3">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
-        <v>0.006650305852000001</v>
+        <v>0.006650305852</v>
       </c>
       <c r="R3">
-        <v>0.059852752668</v>
+        <v>0.05985275266799999</v>
       </c>
       <c r="S3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="T3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H4">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>0.01515183546666667</v>
+        <v>0.01834114877155556</v>
       </c>
       <c r="R4">
-        <v>0.1363665192</v>
+        <v>0.165070338944</v>
       </c>
       <c r="S4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="T4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H5">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>0.04514564565733334</v>
+        <v>0.01822648433266667</v>
       </c>
       <c r="R5">
-        <v>0.270873873944</v>
+        <v>0.109358905996</v>
       </c>
       <c r="S5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="T5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H6">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>0.01555031765555556</v>
+        <v>0.02354243524977778</v>
       </c>
       <c r="R6">
-        <v>0.1399528589</v>
+        <v>0.211881917248</v>
       </c>
       <c r="S6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="T6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
     </row>
   </sheetData>
